--- a/teaching/traditional_assets/database/data/germany/germany_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.009310000000000001</v>
+        <v>-0.00515</v>
       </c>
       <c r="E2">
-        <v>0.0626</v>
+        <v>-0.0143</v>
       </c>
       <c r="F2">
-        <v>0.08345499999999999</v>
+        <v>-0.06860000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.003049734617028911</v>
+        <v>-6.528183262934564e-05</v>
       </c>
       <c r="J2">
-        <v>-0.002083004731989149</v>
+        <v>-4.451589583863478e-05</v>
       </c>
       <c r="K2">
-        <v>1212.81</v>
+        <v>-7.59999999999998</v>
       </c>
       <c r="L2">
-        <v>0.1168106561876968</v>
+        <v>-0.0007883572088005538</v>
       </c>
       <c r="M2">
-        <v>539.4079</v>
+        <v>46.03279999999999</v>
       </c>
       <c r="N2">
-        <v>0.044402290051201</v>
+        <v>0.003940658305868253</v>
       </c>
       <c r="O2">
-        <v>0.4447587833213777</v>
+        <v>-6.056947368421068</v>
       </c>
       <c r="P2">
-        <v>539.4079</v>
+        <v>46.03279999999999</v>
       </c>
       <c r="Q2">
-        <v>0.044402290051201</v>
+        <v>0.003940658305868253</v>
       </c>
       <c r="R2">
-        <v>0.4447587833213777</v>
+        <v>-6.056947368421068</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>70290.2</v>
+        <v>110550.2</v>
       </c>
       <c r="V2">
-        <v>5.786058839992756</v>
+        <v>9.463699011257116</v>
       </c>
       <c r="W2">
-        <v>0.04090419806243273</v>
+        <v>0.05676154332458941</v>
       </c>
       <c r="X2">
-        <v>0.06417996368941048</v>
+        <v>0.07960543238549264</v>
       </c>
       <c r="Y2">
-        <v>-0.02327576562697775</v>
+        <v>-0.02284388906090323</v>
       </c>
       <c r="Z2">
-        <v>0.1389504828784851</v>
+        <v>0.1164440072923984</v>
       </c>
       <c r="AA2">
-        <v>-0.0008377008412076568</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03680636282489677</v>
+        <v>0.03042416642154142</v>
       </c>
       <c r="AC2">
-        <v>-0.03737635910048182</v>
+        <v>-0.03180571047748443</v>
       </c>
       <c r="AD2">
-        <v>116091.33</v>
+        <v>117654.3</v>
       </c>
       <c r="AE2">
-        <v>2799.91239804113</v>
+        <v>8.346682255483405</v>
       </c>
       <c r="AF2">
-        <v>118891.2423980411</v>
+        <v>117662.6466822555</v>
       </c>
       <c r="AG2">
-        <v>48601.04239804113</v>
+        <v>7112.446682255468</v>
       </c>
       <c r="AH2">
-        <v>0.9072935615591294</v>
+        <v>0.9096866746610763</v>
       </c>
       <c r="AI2">
-        <v>0.7574637695500057</v>
+        <v>0.7390923309708268</v>
       </c>
       <c r="AJ2">
-        <v>0.8000271358052077</v>
+        <v>0.3784434851552905</v>
       </c>
       <c r="AK2">
-        <v>0.5607632984972289</v>
+        <v>0.1462002988224896</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>219.7376012174486</v>
+        <v>113129.1346153846</v>
       </c>
       <c r="AP2">
-        <v>91.99202449668785</v>
+        <v>6838.891040630258</v>
       </c>
     </row>
     <row r="3">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0713</v>
+        <v>-0.075</v>
       </c>
       <c r="E3">
-        <v>0.0736</v>
+        <v>-0.07719999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001207793365535626</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009308289294671731</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>60.6</v>
+        <v>51.1</v>
       </c>
       <c r="L3">
-        <v>0.2202835332606325</v>
+        <v>0.1834829443447038</v>
       </c>
       <c r="M3">
-        <v>19.2603</v>
+        <v>20.7328</v>
       </c>
       <c r="N3">
-        <v>0.04020939457202505</v>
+        <v>0.03862295081967213</v>
       </c>
       <c r="O3">
-        <v>0.3178267326732673</v>
+        <v>0.4057299412915851</v>
       </c>
       <c r="P3">
-        <v>19.2603</v>
+        <v>20.7328</v>
       </c>
       <c r="Q3">
-        <v>0.04020939457202505</v>
+        <v>0.03862295081967213</v>
       </c>
       <c r="R3">
-        <v>0.3178267326732673</v>
+        <v>0.4057299412915851</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +770,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>147.3</v>
+        <v>145.1</v>
       </c>
       <c r="V3">
-        <v>0.3075156576200418</v>
+        <v>0.2703055141579732</v>
       </c>
       <c r="W3">
-        <v>0.07226329596947294</v>
+        <v>0.06001174398120963</v>
       </c>
       <c r="X3">
-        <v>0.09167671313449623</v>
+        <v>0.08690702611487093</v>
       </c>
       <c r="Y3">
-        <v>-0.01941341716502329</v>
+        <v>-0.0268952821336613</v>
       </c>
       <c r="Z3">
-        <v>0.1181808307330225</v>
+        <v>0.1176893171061528</v>
       </c>
       <c r="AA3">
-        <v>0.0001100061361547605</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03563091748433082</v>
+        <v>0.02986801783656699</v>
       </c>
       <c r="AC3">
-        <v>-0.03552091134817606</v>
+        <v>-0.02986801783656699</v>
       </c>
       <c r="AD3">
-        <v>1662.2</v>
+        <v>1863.8</v>
       </c>
       <c r="AE3">
-        <v>27.18868022570575</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1689.388680225706</v>
+        <v>1863.8</v>
       </c>
       <c r="AG3">
-        <v>1542.088680225706</v>
+        <v>1718.7</v>
       </c>
       <c r="AH3">
-        <v>0.77909864390634</v>
+        <v>0.7763892360243273</v>
       </c>
       <c r="AI3">
-        <v>0.6617557174785794</v>
+        <v>0.6690118094691123</v>
       </c>
       <c r="AJ3">
-        <v>0.7629990189512578</v>
+        <v>0.7620039902460652</v>
       </c>
       <c r="AK3">
-        <v>0.6410442038166801</v>
+        <v>0.6508255074219933</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>288.0762564991335</v>
-      </c>
-      <c r="AP3">
-        <v>267.2597366075747</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commerzbank AG (XTRA:CBK)</t>
+          <t>HSBC Trinkaus &amp; Burkhardt AG (DB:TUB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,13 +844,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.00732</v>
+        <v>0.0268</v>
       </c>
       <c r="E4">
-        <v>0.0626</v>
-      </c>
-      <c r="F4">
-        <v>-0.00709</v>
+        <v>-0.0143</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.004049071741556992</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.003017061793433489</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>870.1</v>
+        <v>147.9</v>
       </c>
       <c r="L4">
-        <v>0.09819987585350715</v>
+        <v>0.1649565023421816</v>
       </c>
       <c r="M4">
-        <v>272.6</v>
+        <v>25.3</v>
       </c>
       <c r="N4">
-        <v>0.03517373969368137</v>
+        <v>0.008485946199771919</v>
       </c>
       <c r="O4">
-        <v>0.3132973221468797</v>
+        <v>0.1710615280594997</v>
       </c>
       <c r="P4">
-        <v>272.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q4">
-        <v>0.03517373969368137</v>
+        <v>0.008485946199771919</v>
       </c>
       <c r="R4">
-        <v>0.3132973221468797</v>
+        <v>0.1710615280594997</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,67 +892,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>57810.5</v>
+        <v>11827</v>
       </c>
       <c r="V4">
-        <v>7.459323105508315</v>
+        <v>3.966928288723418</v>
       </c>
       <c r="W4">
-        <v>0.02638809699998787</v>
+        <v>0.05351134266796918</v>
       </c>
       <c r="X4">
-        <v>0.2555093092713919</v>
+        <v>0.04312265916664064</v>
       </c>
       <c r="Y4">
-        <v>-0.229121212271404</v>
+        <v>0.01038868350132854</v>
       </c>
       <c r="Z4">
-        <v>0.1185927332923582</v>
+        <v>-0.2371079494367165</v>
       </c>
       <c r="AA4">
-        <v>-0.0003578016045952216</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.03680636282489677</v>
+        <v>0.0308265655591313</v>
       </c>
       <c r="AC4">
-        <v>-0.03716416442949199</v>
+        <v>-0.0308265655591313</v>
       </c>
       <c r="AD4">
-        <v>111508</v>
+        <v>2108.5</v>
       </c>
       <c r="AE4">
-        <v>2640.884000830329</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>114148.8840008303</v>
+        <v>2108.5</v>
       </c>
       <c r="AG4">
-        <v>56338.38400083032</v>
+        <v>-9718.5</v>
       </c>
       <c r="AH4">
-        <v>0.9364219475369276</v>
+        <v>0.4142517534725633</v>
       </c>
       <c r="AI4">
-        <v>0.7733837977023126</v>
+        <v>0.4265196722969556</v>
       </c>
       <c r="AJ4">
-        <v>0.8790718781879816</v>
+        <v>1.442534621721512</v>
       </c>
       <c r="AK4">
-        <v>0.6274727523814724</v>
+        <v>1.411854434517324</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>226.5041641275645</v>
-      </c>
-      <c r="AP4">
-        <v>114.4391306131024</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSBC Trinkaus &amp; Burkhardt AG (DB:TUB)</t>
+          <t>Commerzbank AG (XTRA:CBK)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,10 +966,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0214</v>
-      </c>
-      <c r="E5">
-        <v>-0.07679999999999999</v>
+        <v>-0.0371</v>
+      </c>
+      <c r="F5">
+        <v>-0.06860000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,103 +978,94 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001937506471700497</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001344753350221349</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>106.4</v>
+        <v>-233.7</v>
       </c>
       <c r="L5">
-        <v>0.1303442361876761</v>
+        <v>-0.02784264201296225</v>
       </c>
       <c r="M5">
-        <v>209</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.116246732298793</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>1.964285714285714</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>209</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.116246732298793</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>1.964285714285714</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>8425.1</v>
+        <v>98258.60000000001</v>
       </c>
       <c r="V5">
-        <v>4.686078202347183</v>
+        <v>12.18001289170964</v>
       </c>
       <c r="W5">
-        <v>0.04090419806243273</v>
+        <v>-0.007284799177070182</v>
       </c>
       <c r="X5">
-        <v>0.06417996368941048</v>
+        <v>0.2546193460291942</v>
       </c>
       <c r="Y5">
-        <v>-0.02327576562697775</v>
+        <v>-0.2619041452062644</v>
       </c>
       <c r="Z5">
-        <v>-0.6296143505443522</v>
+        <v>0.09976762568122523</v>
       </c>
       <c r="AA5">
-        <v>-0.0008466760072419567</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03652968309323986</v>
+        <v>0.03278485539583757</v>
       </c>
       <c r="AC5">
-        <v>-0.03737635910048182</v>
+        <v>-0.03278485539583757</v>
       </c>
       <c r="AD5">
-        <v>2846.3</v>
+        <v>113445.3</v>
       </c>
       <c r="AE5">
-        <v>114.5920673357544</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2960.892067335755</v>
+        <v>113445.3</v>
       </c>
       <c r="AG5">
-        <v>-5464.207932664245</v>
+        <v>15186.7</v>
       </c>
       <c r="AH5">
-        <v>0.6221940411431829</v>
+        <v>0.9336101224153894</v>
       </c>
       <c r="AI5">
-        <v>0.5171961379376174</v>
+        <v>0.7513028309627737</v>
       </c>
       <c r="AJ5">
-        <v>1.49038434114657</v>
+        <v>0.6530818486361427</v>
       </c>
       <c r="AK5">
-        <v>2.023624872204865</v>
+        <v>0.2879568444903725</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>116.1755102040816</v>
-      </c>
-      <c r="AP5">
-        <v>-223.0288952107855</v>
       </c>
     </row>
     <row r="6">
@@ -1109,10 +1085,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0518</v>
+        <v>0.145</v>
       </c>
       <c r="E6">
-        <v>0.0278</v>
+        <v>0.451</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1121,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.004660072667601456</v>
+        <v>-0.00878961523878046</v>
       </c>
       <c r="J6">
-        <v>-0.002330036333800728</v>
+        <v>-0.006834683573603425</v>
       </c>
       <c r="K6">
-        <v>4.51</v>
+        <v>27.1</v>
       </c>
       <c r="L6">
-        <v>0.1008948545861297</v>
+        <v>0.3784916201117319</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1154,55 +1130,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>136.6</v>
+        <v>319.5</v>
       </c>
       <c r="V6">
-        <v>2.206785137318255</v>
+        <v>3.324661810613944</v>
       </c>
       <c r="W6">
-        <v>0.03506998444790047</v>
+        <v>0.1966618287373004</v>
       </c>
       <c r="X6">
-        <v>0.05819997303668566</v>
+        <v>0.07230383865611435</v>
       </c>
       <c r="Y6">
-        <v>-0.02312998858878519</v>
+        <v>0.1243579900811861</v>
       </c>
       <c r="Z6">
-        <v>0.3595226516666412</v>
+        <v>0.9855921533786987</v>
       </c>
       <c r="AA6">
-        <v>-0.0008377008412076568</v>
+        <v>-0.006736210500969819</v>
       </c>
       <c r="AB6">
-        <v>0.03692505812767596</v>
+        <v>0.03002176728395155</v>
       </c>
       <c r="AC6">
-        <v>-0.03776275896888361</v>
+        <v>-0.03675797778492137</v>
       </c>
       <c r="AD6">
-        <v>72.8</v>
+        <v>236.7</v>
       </c>
       <c r="AE6">
-        <v>3.831526241208926</v>
+        <v>8.346682255483405</v>
       </c>
       <c r="AF6">
-        <v>76.63152624120892</v>
+        <v>245.0466822554834</v>
       </c>
       <c r="AG6">
-        <v>-59.96847375879108</v>
+        <v>-74.4533177445166</v>
       </c>
       <c r="AH6">
-        <v>0.5531703022442653</v>
+        <v>0.7183029910634421</v>
       </c>
       <c r="AI6">
-        <v>0.3163565347183624</v>
+        <v>0.5198862991522258</v>
       </c>
       <c r="AJ6">
-        <v>-31.04719598386479</v>
+        <v>-3.439479402237567</v>
       </c>
       <c r="AK6">
-        <v>-0.567713786714143</v>
+        <v>-0.4903190286321055</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1211,141 +1187,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>130.4659498207885</v>
+        <v>227.5961538461538</v>
       </c>
       <c r="AP6">
-        <v>-107.4703830802707</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>comdirect bank AG (XTRA:COM)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.009310000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.213</v>
-      </c>
-      <c r="F7">
-        <v>0.174</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.006492554567141846</v>
-      </c>
-      <c r="J7">
-        <v>0.004578453294754842</v>
-      </c>
-      <c r="K7">
-        <v>171.2</v>
-      </c>
-      <c r="L7">
-        <v>0.4434084434084434</v>
-      </c>
-      <c r="M7">
-        <v>38.5476</v>
-      </c>
-      <c r="N7">
-        <v>0.01871878793764872</v>
-      </c>
-      <c r="O7">
-        <v>0.2251612149532711</v>
-      </c>
-      <c r="P7">
-        <v>38.5476</v>
-      </c>
-      <c r="Q7">
-        <v>0.01871878793764872</v>
-      </c>
-      <c r="R7">
-        <v>0.2251612149532711</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>3770.7</v>
-      </c>
-      <c r="V7">
-        <v>1.831059097751663</v>
-      </c>
-      <c r="W7">
-        <v>0.2314138956474723</v>
-      </c>
-      <c r="X7">
-        <v>0.0402033757270553</v>
-      </c>
-      <c r="Y7">
-        <v>0.191210519920417</v>
-      </c>
-      <c r="Z7">
-        <v>-0.3366190595081837</v>
-      </c>
-      <c r="AA7">
-        <v>-0.00154119464208252</v>
-      </c>
-      <c r="AB7">
-        <v>0.04008229772831671</v>
-      </c>
-      <c r="AC7">
-        <v>-0.04162349237039923</v>
-      </c>
-      <c r="AD7">
-        <v>2.03</v>
-      </c>
-      <c r="AE7">
-        <v>13.41612340813267</v>
-      </c>
-      <c r="AF7">
-        <v>15.44612340813267</v>
-      </c>
-      <c r="AG7">
-        <v>-3755.253876591867</v>
-      </c>
-      <c r="AH7">
-        <v>0.007444825771145296</v>
-      </c>
-      <c r="AI7">
-        <v>0.01832397466362634</v>
-      </c>
-      <c r="AJ7">
-        <v>2.214242927489456</v>
-      </c>
-      <c r="AK7">
-        <v>1.282639878514404</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0.3911368015414258</v>
-      </c>
-      <c r="AP7">
-        <v>-723.5556602296468</v>
+        <v>-71.58972860049673</v>
       </c>
     </row>
   </sheetData>
